--- a/hourly datasets/cap_gen_year14final.xlsx
+++ b/hourly datasets/cap_gen_year14final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1112947872735013</v>
+        <v>0.1064960414663828</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001442947544987164</v>
+        <v>0.001360557758454122</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002600660499987463</v>
+        <v>0.0006657543448392394</v>
       </c>
       <c r="D3" t="n">
-        <v>1.116148760193995</v>
+        <v>2.240979161002647</v>
       </c>
       <c r="E3" t="n">
-        <v>0.157746029446701</v>
+        <v>0.09708252463288844</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.003654353201093684</v>
+        <v>5.569888555048592e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006540248291068013</v>
+        <v>0.002665416631357759</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1127377348184884</v>
+        <v>0.1078565992248369</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003360084497382385</v>
+        <v>0.01152617729072993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004764132636368825</v>
+        <v>0.001405153811283492</v>
       </c>
       <c r="D4" t="n">
-        <v>2.755254620924465</v>
+        <v>8.071191060019499</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1606566447356112</v>
+        <v>0.07338213104006673</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.005977599783353664</v>
+        <v>0.008772118104493524</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01269776877811844</v>
+        <v>0.01428023647696634</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1146548717708836</v>
+        <v>0.1180222187571127</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005109070274107376</v>
+        <v>0.01373047161822737</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004481304223464042</v>
+        <v>0.006491186634822179</v>
       </c>
       <c r="D5" t="n">
-        <v>1.675001549617454</v>
+        <v>6.633884970403383</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1421252489001412</v>
+        <v>0.1457911174149475</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.003674261557735878</v>
+        <v>0.001007939167300922</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01389240210595063</v>
+        <v>0.02645300406915381</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1164038575476086</v>
+        <v>0.1202265130846101</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006808789242251216</v>
+        <v>0.01164646475784711</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003433491439768733</v>
+        <v>0.003765595632747634</v>
       </c>
       <c r="D6" t="n">
-        <v>1.347051142582957</v>
+        <v>5.178272378650155</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08772176856097208</v>
+        <v>0.07686960457822326</v>
       </c>
       <c r="F6" t="n">
-        <v>7.916640075284286e-05</v>
+        <v>0.004266012890411725</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01353841208374959</v>
+        <v>0.01902691662528249</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1181035765157525</v>
+        <v>0.1181425062242299</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005776615700026289</v>
+        <v>0.01481699108592017</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00260102796442239</v>
+        <v>0.006483547670881736</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9171712335859539</v>
+        <v>4.008740890156023</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05026822259512243</v>
+        <v>0.1140347679492291</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006786090544224986</v>
+        <v>0.002109438194913143</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01087462234563008</v>
+        <v>0.0275245439769272</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1170714029735275</v>
+        <v>0.121313032552303</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.006087243701943205</v>
+        <v>0.01198874003064032</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003258948159641627</v>
+        <v>0.006084024219851028</v>
       </c>
       <c r="D8" t="n">
-        <v>1.128816860900157</v>
+        <v>4.591842971072017</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07925131497549459</v>
+        <v>0.1205668699114027</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0003002817596009513</v>
+        <v>6.424008068581881e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01247476916348736</v>
+        <v>0.02391323998059483</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1173820309754445</v>
+        <v>0.1184847814970231</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.004223967349288007</v>
+        <v>0.009717951609461059</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003042962095818995</v>
+        <v>0.007964177051624503</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9168908405181269</v>
+        <v>4.320388793747422</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06208904398540147</v>
+        <v>0.1032628555774512</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001740214441852926</v>
+        <v>-0.005891593498264538</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01018814914042894</v>
+        <v>0.02532749671718666</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1155187546227893</v>
+        <v>0.1162139930758438</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1112947872735013</v>
+        <v>-0.1064960414663828</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002148834450234869</v>
+        <v>0.0004814384452962593</v>
       </c>
       <c r="D10" t="n">
-        <v>-111.9127090685393</v>
+        <v>-239.2625494043926</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003514826267643776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1155065185413512</v>
+        <v>-0.1074396465421868</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1070830560056514</v>
+        <v>-0.1055524363905787</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0465965383720072</v>
+        <v>-0.04758467142744626</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002263488473689675</v>
+        <v>0.0005251722608214245</v>
       </c>
       <c r="D11" t="n">
-        <v>-42.34969731056676</v>
+        <v>-97.05769047497839</v>
       </c>
       <c r="E11" t="n">
-        <v>0.009740131295330676</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05103299160377817</v>
+        <v>-0.04861399349439435</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04216008514023623</v>
+        <v>-0.04655534936049816</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06469824890149406</v>
+        <v>0.05891137003893652</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03526646323200665</v>
+        <v>-0.03600997783196849</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002200525579852434</v>
+        <v>0.0005069762511751827</v>
       </c>
       <c r="D12" t="n">
-        <v>-35.4394290311126</v>
+        <v>-77.57845744213114</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01152963640444612</v>
+        <v>3.896347234450767e-256</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03957950914361614</v>
+        <v>-0.03700363625136938</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03095341732039721</v>
+        <v>-0.03501631941256762</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07602832404149461</v>
+        <v>0.07048606363441429</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03254452612742655</v>
+        <v>-0.03312148630382851</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002206351032430833</v>
+        <v>0.0005078854039619428</v>
       </c>
       <c r="D13" t="n">
-        <v>-31.60069439092449</v>
+        <v>-70.57631248675035</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02288509566822957</v>
+        <v>8.624017266256516e-188</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03686899035427052</v>
+        <v>-0.03411692664755753</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02822006190058257</v>
+        <v>-0.03212604596009948</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0787502611460747</v>
+        <v>0.07337455516255427</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02655623002296022</v>
+        <v>-0.02711818916936227</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002185073114736134</v>
+        <v>0.0004948760748773819</v>
       </c>
       <c r="D14" t="n">
-        <v>-27.6206855471346</v>
+        <v>-61.03429212966432</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02196015547257147</v>
+        <v>1.13241562069149e-83</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03083899041572489</v>
+        <v>-0.02808813160792204</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02227346963019555</v>
+        <v>-0.02614824673080249</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08473855725054102</v>
+        <v>0.07937785229702052</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02123122065845109</v>
+        <v>-0.02232895710583033</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002160151009683494</v>
+        <v>0.0004886076926807012</v>
       </c>
       <c r="D15" t="n">
-        <v>-23.14641309788884</v>
+        <v>-50.05908973490114</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01853283123535327</v>
+        <v>2.793410367242538e-57</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02546513347421889</v>
+        <v>-0.02328661370273277</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01699730784268328</v>
+        <v>-0.0213713005089279</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09006356661505016</v>
+        <v>0.08416708436055245</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02041437989968133</v>
+        <v>-0.02154908315537955</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002151408634456372</v>
+        <v>0.0004774112571119029</v>
       </c>
       <c r="D16" t="n">
-        <v>-22.04823325144869</v>
+        <v>-48.58678148271015</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04476868041943518</v>
+        <v>2.836905899859235e-39</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02463115802890414</v>
+        <v>-0.02248479507410671</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01619760177045851</v>
+        <v>-0.02061337123665237</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09088040737381993</v>
+        <v>0.08494695831100324</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01877235421471513</v>
+        <v>-0.01989460376376301</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002168427565636405</v>
+        <v>0.0004846323122433717</v>
       </c>
       <c r="D17" t="n">
-        <v>-20.4478015762674</v>
+        <v>-45.63276626024594</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05380075982251722</v>
+        <v>3.87258275323383e-37</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02302248942133849</v>
+        <v>-0.02084446873002404</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01452221900809177</v>
+        <v>-0.01894473879750198</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09252243305878613</v>
+        <v>0.08660143770261977</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01653715478442252</v>
+        <v>-0.01768384768455453</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002200765060143106</v>
+        <v>0.0004927594257718047</v>
       </c>
       <c r="D18" t="n">
-        <v>-17.57727706910537</v>
+        <v>-39.52624895587892</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04025344022760671</v>
+        <v>7.951326698258996e-28</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02085067129441598</v>
+        <v>-0.01864964154869635</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01222363827442904</v>
+        <v>-0.01671805382041271</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09475763248907873</v>
+        <v>0.08881219378182825</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01424897812178967</v>
+        <v>-0.01501933554117781</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002190547328341144</v>
+        <v>0.0004870935315581139</v>
       </c>
       <c r="D19" t="n">
-        <v>-15.31290011959016</v>
+        <v>-33.89637431616226</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04490363637486899</v>
+        <v>9.596625006765299e-16</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01854246758753632</v>
+        <v>-0.01597402443165519</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.009955488656043015</v>
+        <v>-0.01406464665070042</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09704580915171158</v>
+        <v>0.09147670592520497</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0101775751415814</v>
+        <v>-0.01084563274848796</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002228921160106177</v>
+        <v>0.0004950637531077616</v>
       </c>
       <c r="D20" t="n">
-        <v>-10.74732401590983</v>
+        <v>-24.59393134766182</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05050445781733936</v>
+        <v>0.009168122169645156</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01454627778132032</v>
+        <v>-0.01181594302898177</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.005808872501842482</v>
+        <v>-0.009875322467994148</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1011172121319198</v>
+        <v>0.09565040871789482</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.007019824443892989</v>
+        <v>-0.008005590703414747</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002217133171689081</v>
+        <v>0.0004965995510334915</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.764486729443124</v>
+        <v>-18.06034061820105</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1275918355849974</v>
+        <v>0.002466463359950314</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01136542205053923</v>
+        <v>-0.008978911099275661</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.002674226837246745</v>
+        <v>-0.007032270307553834</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1042749628296083</v>
+        <v>0.09849045076296803</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.005343768380205689</v>
+        <v>-0.006442773990630101</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002218931960005514</v>
+        <v>0.0004922571314374162</v>
       </c>
       <c r="D22" t="n">
-        <v>-5.768019951606505</v>
+        <v>-14.26305225309795</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0707538411708571</v>
+        <v>0.05551651273030982</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.009692890591704386</v>
+        <v>-0.007407583376462374</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0009946461687069851</v>
+        <v>-0.005477964604797828</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1059510188932956</v>
+        <v>0.1000532674757527</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.003055194932682114</v>
+        <v>-0.005030046940993602</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002208544440510252</v>
+        <v>0.0004930780714059177</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.26585406810432</v>
+        <v>-11.23656151001397</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1268797298352179</v>
+        <v>0.06538108850648955</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.007383957588040679</v>
+        <v>-0.005996465341256235</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001273567722676452</v>
+        <v>-0.004063628540730971</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1082395923408191</v>
+        <v>0.1014659945253892</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.002041851745947708</v>
+        <v>-0.004206301800107242</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002259597898195152</v>
+        <v>0.0004872750687903423</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.979759759203964</v>
+        <v>-9.240635445136027</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08325747212570252</v>
+        <v>0.03879154343074996</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.006470680001613388</v>
+        <v>-0.005161346476548963</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002386976509717972</v>
+        <v>-0.003251257123665521</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1092529355275536</v>
+        <v>0.1022897396662755</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.000158103360452161</v>
+        <v>-0.002419443623081502</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002235207076966168</v>
+        <v>0.0004773233058582917</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.327206525531829</v>
+        <v>-5.23700088304876</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1309638665709583</v>
+        <v>0.150637516970459</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.004539124724368824</v>
+        <v>-0.003354983142147023</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004222918003464501</v>
+        <v>-0.001483904104015981</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1111366839130491</v>
+        <v>0.1040765978433013</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01287874879129914</v>
+        <v>0.0211794654040267</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0009828599188419415</v>
+        <v>0.00114044985415447</v>
       </c>
       <c r="D26" t="n">
-        <v>4.949515038443845</v>
+        <v>11.59721952635855</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01388527791938593</v>
+        <v>0.0114740887632291</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01095234732419865</v>
+        <v>0.01894421803744472</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01480515025839963</v>
+        <v>0.02341471277060868</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1241735360648004</v>
+        <v>0.1276755068704095</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year14final.xlsx
+++ b/hourly datasets/cap_gen_year14final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1064960414663828</v>
+        <v>0.1061426195863028</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001360557758454122</v>
+        <v>0.000330887288019808</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006657543448392394</v>
+        <v>0.0006577862471032571</v>
       </c>
       <c r="D3" t="n">
-        <v>2.240979161002647</v>
+        <v>1.43916866545607</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09708252463288844</v>
+        <v>0.04537349942905159</v>
       </c>
       <c r="F3" t="n">
-        <v>5.569888555048592e-05</v>
+        <v>-0.0009583545551645642</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002665416631357759</v>
+        <v>0.00162012913120418</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1078565992248369</v>
+        <v>0.1064735068743226</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01152617729072993</v>
+        <v>0.005692126525521555</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001405153811283492</v>
+        <v>0.001203703002278694</v>
       </c>
       <c r="D4" t="n">
-        <v>8.071191060019499</v>
+        <v>5.735610660833037</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07338213104006673</v>
+        <v>0.09580962614242047</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008772118104493524</v>
+        <v>0.003332904589632221</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01428023647696634</v>
+        <v>0.008051348461410887</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1180222187571127</v>
+        <v>0.1118347461118244</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01373047161822737</v>
+        <v>0.006547117386774523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006491186634822179</v>
+        <v>0.004877993965308047</v>
       </c>
       <c r="D5" t="n">
-        <v>6.633884970403383</v>
+        <v>5.322328469670745</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1457911174149475</v>
+        <v>0.1110466996002229</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001007939167300922</v>
+        <v>-0.003013612227710873</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02645300406915381</v>
+        <v>0.01610784700125991</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1202265130846101</v>
+        <v>0.1126897369730773</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01164646475784711</v>
+        <v>0.005185128199104758</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003765595632747634</v>
+        <v>0.003713920400556321</v>
       </c>
       <c r="D6" t="n">
-        <v>5.178272378650155</v>
+        <v>4.102476909098352</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07686960457822326</v>
+        <v>0.1408025359511819</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004266012890411725</v>
+        <v>-0.002094053309194332</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01902691662528249</v>
+        <v>0.01246430970740385</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1181425062242299</v>
+        <v>0.1113277477854076</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01481699108592017</v>
+        <v>0.003646109282004953</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006483547670881736</v>
+        <v>0.002586753136960603</v>
       </c>
       <c r="D7" t="n">
-        <v>4.008740890156023</v>
+        <v>3.130296760362846</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1140347679492291</v>
+        <v>-0.2421962145696603</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002109438194913143</v>
+        <v>-0.001574699911773435</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0275245439769272</v>
+        <v>0.01002226571188631</v>
       </c>
       <c r="H7" t="n">
-        <v>0.121313032552303</v>
+        <v>0.1097887288683078</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01198874003064032</v>
+        <v>0.006241167074976602</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006084024219851028</v>
+        <v>0.002272441455534293</v>
       </c>
       <c r="D8" t="n">
-        <v>4.591842971072017</v>
+        <v>3.762033238517172</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1205668699114027</v>
+        <v>-0.001718928977169056</v>
       </c>
       <c r="F8" t="n">
-        <v>6.424008068581881e-05</v>
+        <v>0.01638110076198845</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02391323998059483</v>
+        <v>0.01077302123584316</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1184847814970231</v>
+        <v>0.1123837866612794</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009717951609461059</v>
+        <v>0.002633112130549597</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007964177051624503</v>
+        <v>0.006211415843491506</v>
       </c>
       <c r="D9" t="n">
-        <v>4.320388793747422</v>
+        <v>3.636699044279375</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1032628555774512</v>
+        <v>0.09578894878622077</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.005891593498264538</v>
+        <v>0.02002418499228468</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02532749671718666</v>
+        <v>0.01463355066679221</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1162139930758438</v>
+        <v>0.1087757317168524</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1064960414663828</v>
+        <v>-0.1061426195863028</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004814384452962593</v>
+        <v>0.0004785250328002423</v>
       </c>
       <c r="D10" t="n">
-        <v>-239.2625494043926</v>
+        <v>-241.8237403623916</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1074396465421868</v>
+        <v>-0.1070805145636167</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1055524363905787</v>
+        <v>-0.105204724608989</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04758467142744626</v>
+        <v>-0.04751767813274933</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005251722608214245</v>
+        <v>0.000525309493002864</v>
       </c>
       <c r="D11" t="n">
-        <v>-97.05769047497839</v>
+        <v>-97.21914425084724</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.625989905268265e-237</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04861399349439435</v>
+        <v>-0.04854726930532375</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04655534936049816</v>
+        <v>-0.04648808696017491</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05891137003893652</v>
+        <v>0.05862494145355348</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03600997783196849</v>
+        <v>-0.03529741143518173</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005069762511751827</v>
+        <v>0.0005029390979352343</v>
       </c>
       <c r="D12" t="n">
-        <v>-77.57845744213114</v>
+        <v>-76.96790743121869</v>
       </c>
       <c r="E12" t="n">
-        <v>3.896347234450767e-256</v>
+        <v>7.728602283941695e-215</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03700363625136938</v>
+        <v>-0.0362831572706407</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03501631941256762</v>
+        <v>-0.03431166559972274</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07048606363441429</v>
+        <v>0.07084520815112108</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03312148630382851</v>
+        <v>-0.03264724127243736</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005078854039619428</v>
+        <v>0.0005042760470180404</v>
       </c>
       <c r="D13" t="n">
-        <v>-70.57631248675035</v>
+        <v>-70.03791386342137</v>
       </c>
       <c r="E13" t="n">
-        <v>8.624017266256516e-188</v>
+        <v>1.104186451663514e-182</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03411692664755753</v>
+        <v>-0.03363560750441037</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03212604596009948</v>
+        <v>-0.03165887504046435</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07337455516255427</v>
+        <v>0.07349537831386545</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02711818916936227</v>
+        <v>-0.02683853104526581</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004948760748773819</v>
+        <v>0.0004910712226238986</v>
       </c>
       <c r="D14" t="n">
-        <v>-61.03429212966432</v>
+        <v>-60.58931215177298</v>
       </c>
       <c r="E14" t="n">
-        <v>1.13241562069149e-83</v>
+        <v>8.097462835179723e-110</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02808813160792204</v>
+        <v>-0.027801016193754</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02614824673080249</v>
+        <v>-0.02587604589677761</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07937785229702052</v>
+        <v>0.079304088541037</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02232895710583033</v>
+        <v>-0.02197892623214067</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004886076926807012</v>
+        <v>0.0004831611810229407</v>
       </c>
       <c r="D15" t="n">
-        <v>-50.05908973490114</v>
+        <v>-50.25327969092741</v>
       </c>
       <c r="E15" t="n">
-        <v>2.793410367242538e-57</v>
+        <v>9.198796203141902e-42</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02328661370273277</v>
+        <v>-0.02292590793206254</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0213713005089279</v>
+        <v>-0.0210319445322188</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08416708436055245</v>
+        <v>0.08416369335416214</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02154908315537955</v>
+        <v>-0.02106943760811313</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004774112571119029</v>
+        <v>0.0004732110695663054</v>
       </c>
       <c r="D16" t="n">
-        <v>-48.58678148271015</v>
+        <v>-48.97972620169593</v>
       </c>
       <c r="E16" t="n">
-        <v>2.836905899859235e-39</v>
+        <v>1.80937825127381e-22</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02248479507410671</v>
+        <v>-0.02199691738908489</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02061337123665237</v>
+        <v>-0.02014195782714136</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08494695831100324</v>
+        <v>0.08507318197818968</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01989460376376301</v>
+        <v>-0.01890646736614874</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004846323122433717</v>
+        <v>0.0004780861515574843</v>
       </c>
       <c r="D17" t="n">
-        <v>-45.63276626024594</v>
+        <v>-44.92927476379124</v>
       </c>
       <c r="E17" t="n">
-        <v>3.87258275323383e-37</v>
+        <v>3.041008350176733e-10</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02084446873002404</v>
+        <v>-0.01984350215024135</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01894473879750198</v>
+        <v>-0.01796943258205612</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08660143770261977</v>
+        <v>0.08723615222015407</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01768384768455453</v>
+        <v>-0.01682353126585608</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004927594257718047</v>
+        <v>0.0004872144513841002</v>
       </c>
       <c r="D18" t="n">
-        <v>-39.52624895587892</v>
+        <v>-38.8617696512119</v>
       </c>
       <c r="E18" t="n">
-        <v>7.951326698258996e-28</v>
+        <v>1.652954587706632e-17</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01864964154869635</v>
+        <v>-0.0177784572426719</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01671805382041271</v>
+        <v>-0.01586860528904027</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08881219378182825</v>
+        <v>0.08931908832044672</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01501933554117781</v>
+        <v>-0.01431538671097654</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004870935315581139</v>
+        <v>0.0004827215720127204</v>
       </c>
       <c r="D19" t="n">
-        <v>-33.89637431616226</v>
+        <v>-33.50822306733857</v>
       </c>
       <c r="E19" t="n">
-        <v>9.596625006765299e-16</v>
+        <v>0.002102571943198116</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01597402443165519</v>
+        <v>-0.0152615067896283</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01406464665070042</v>
+        <v>-0.01336926663232477</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09147670592520497</v>
+        <v>0.09182723287532626</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01084563274848796</v>
+        <v>-0.01028950562756288</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004950637531077616</v>
+        <v>0.0004925827891603462</v>
       </c>
       <c r="D20" t="n">
-        <v>-24.59393134766182</v>
+        <v>-24.10735516293427</v>
       </c>
       <c r="E20" t="n">
-        <v>0.009168122169645156</v>
+        <v>0.0004523320985273739</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01181594302898177</v>
+        <v>-0.01125495340155005</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.009875322467994148</v>
+        <v>-0.009324057853575724</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09565040871789482</v>
+        <v>0.09585311395873992</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.008005590703414747</v>
+        <v>-0.00752414045664214</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004965995510334915</v>
+        <v>0.0004938232060032846</v>
       </c>
       <c r="D21" t="n">
-        <v>-18.06034061820105</v>
+        <v>-17.68398120119439</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002466463359950314</v>
+        <v>4.434311552621919e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.008978911099275661</v>
+        <v>-0.00849201940377174</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.007032270307553834</v>
+        <v>-0.006556261509512542</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09849045076296803</v>
+        <v>0.09861847912966067</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006442773990630101</v>
+        <v>-0.006061756720183701</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004922571314374162</v>
+        <v>0.000490714344597208</v>
       </c>
       <c r="D22" t="n">
-        <v>-14.26305225309795</v>
+        <v>-13.88460317761061</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05551651273030982</v>
+        <v>0.008344639618258407</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.007407583376462374</v>
+        <v>-0.007023542395709375</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005477964604797828</v>
+        <v>-0.005099971044658026</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1000532674757527</v>
+        <v>0.1000808628661191</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005030046940993602</v>
+        <v>-0.004529856174603477</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004930780714059177</v>
+        <v>0.0004916465007868</v>
       </c>
       <c r="D23" t="n">
-        <v>-11.23656151001397</v>
+        <v>-10.64136945469301</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06538108850648955</v>
+        <v>0.0463835227254233</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.005996465341256235</v>
+        <v>-0.005493468842169032</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.004063628540730971</v>
+        <v>-0.003566243507037921</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1014659945253892</v>
+        <v>0.1016127634116993</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004206301800107242</v>
+        <v>-0.003644616363592718</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004872750687903423</v>
+        <v>0.0004853299699341739</v>
       </c>
       <c r="D24" t="n">
-        <v>-9.240635445136027</v>
+        <v>-8.273089909160886</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03879154343074996</v>
+        <v>0.01330534511819528</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.005161346476548963</v>
+        <v>-0.004595848803615329</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.003251257123665521</v>
+        <v>-0.002693383923570107</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1022897396662755</v>
+        <v>0.1024980032227101</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002419443623081502</v>
+        <v>-0.001712244381920993</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004773233058582917</v>
+        <v>0.0004749873897066803</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.23700088304876</v>
+        <v>-3.973220928509489</v>
       </c>
       <c r="E25" t="n">
-        <v>0.150637516970459</v>
+        <v>0.1647471085410445</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.003354983142147023</v>
+        <v>-0.002643205645822024</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.001483904104015981</v>
+        <v>-0.0007812831180199616</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1040765978433013</v>
+        <v>0.1044303752043818</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0211794654040267</v>
+        <v>0.006150570391680345</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00114044985415447</v>
+        <v>0.001980136386180589</v>
       </c>
       <c r="D26" t="n">
-        <v>11.59721952635855</v>
+        <v>5.516193734070618</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0114740887632291</v>
+        <v>0.1861329089211397</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01894421803744472</v>
+        <v>0.01400888997209884</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02341471277060868</v>
+        <v>0.008581005721397809</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1276755068704095</v>
+        <v>0.1122931899779832</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year14final.xlsx
+++ b/hourly datasets/cap_gen_year14final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,605 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1061426195863028</v>
+        <v>0.1316888259411648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.000330887288019808</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0006577862471032571</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.43916866545607</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.04537349942905159</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.0009583545551645642</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00162012913120418</v>
-      </c>
+        <v>0.09674412441938615</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.1064735068743226</v>
+        <v>0.2284329503605509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005692126525521555</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.001203703002278694</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.735610660833037</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.09580962614242047</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.003332904589632221</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.008051348461410887</v>
-      </c>
+        <v>0.07990344475434134</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1118347461118244</v>
+        <v>0.2115922706955061</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006547117386774523</v>
+        <v>0.04772262895102367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004877993965308047</v>
+        <v>0.002506292534061922</v>
       </c>
       <c r="D5" t="n">
-        <v>5.322328469670745</v>
+        <v>12.46460164921901</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1110466996002229</v>
+        <v>0.02889702035119944</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.003013612227710873</v>
+        <v>0.04279117835329112</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01610784700125991</v>
+        <v>0.05265407954875514</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1126897369730773</v>
+        <v>0.1794114548921885</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.005185128199104758</v>
+        <v>0.03787531977556786</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003713920400556321</v>
+        <v>0.001850516781584427</v>
       </c>
       <c r="D6" t="n">
-        <v>4.102476909098352</v>
+        <v>6.068518310765977</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1408025359511819</v>
+        <v>0.01093917159745214</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.002094053309194332</v>
+        <v>0.03423433366044756</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01246430970740385</v>
+        <v>0.04151630589068808</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1113277477854076</v>
+        <v>0.1695641457167326</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003646109282004953</v>
+        <v>0.02958300721800722</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002586753136960603</v>
+        <v>0.001849660232010571</v>
       </c>
       <c r="D7" t="n">
-        <v>3.130296760362846</v>
+        <v>2.978304252956748</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2421962145696603</v>
+        <v>0.002333630388980827</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.001574699911773435</v>
+        <v>0.02595091955157206</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01002226571188631</v>
+        <v>0.03321509488444215</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1097887288683078</v>
+        <v>0.161271833159172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.006241167074976602</v>
+        <v>0.00669560249701444</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002272441455534293</v>
+        <v>0.0003751699148337559</v>
       </c>
       <c r="D8" t="n">
-        <v>3.762033238517172</v>
+        <v>1.990889775517862</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.001718928977169056</v>
+        <v>0.001177792712182868</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01638110076198845</v>
+        <v>0.005958582913412894</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01077302123584316</v>
+        <v>0.007432622080616153</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1123837866612794</v>
+        <v>0.1383844284381792</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002633112130549597</v>
+        <v>0.005769329234511305</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006211415843491506</v>
+        <v>0.0003410958127635297</v>
       </c>
       <c r="D9" t="n">
-        <v>3.636699044279375</v>
+        <v>1.976889684946653</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09578894878622077</v>
+        <v>0.001914234157556083</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02002418499228468</v>
+        <v>0.005099039437638202</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01463355066679221</v>
+        <v>0.00643961903138441</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1087757317168524</v>
+        <v>0.1374581551756761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1061426195863028</v>
+        <v>0.00431597260569016</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004785250328002423</v>
+        <v>0.0003288612888484702</v>
       </c>
       <c r="D10" t="n">
-        <v>-241.8237403623916</v>
+        <v>1.405232429771418</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.0001353014026351332</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1070805145636167</v>
+        <v>0.003670909922886921</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.105204724608989</v>
+        <v>0.004961035288493358</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.136004798546855</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04751767813274933</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.000525309493002864</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-97.21914425084724</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.625989905268265e-237</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.04854726930532375</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04648808696017491</v>
-      </c>
+        <v>0.03110187439324346</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.05862494145355348</v>
+        <v>0.1627907003344083</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03529741143518173</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005029390979352343</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-76.96790743121869</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.728602283941695e-215</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.0362831572706407</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.03431166559972274</v>
-      </c>
+        <v>0.05059417918919562</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.07084520815112108</v>
+        <v>0.1822830051303604</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03264724127243736</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005042760470180404</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-70.03791386342137</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.104186451663514e-182</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.03363560750441037</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.03165887504046435</v>
-      </c>
+        <v>0.0665875333051047</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.07349537831386545</v>
+        <v>0.1982763592462695</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02683853104526581</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0004910712226238986</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-60.58931215177298</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8.097462835179723e-110</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.027801016193754</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.02587604589677761</v>
-      </c>
+        <v>0.07167904298709712</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.079304088541037</v>
+        <v>0.2033678689282619</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02197892623214067</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0004831611810229407</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-50.25327969092741</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.198796203141902e-42</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02292590793206254</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.0210319445322188</v>
-      </c>
+        <v>0.07823584932966138</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.08416369335416214</v>
+        <v>0.2099246752708262</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02106943760811313</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0004732110695663054</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-48.97972620169593</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.80937825127381e-22</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.02199691738908489</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.02014195782714136</v>
-      </c>
+        <v>0.0826424627381253</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.08507318197818968</v>
+        <v>0.2143312886792901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01890646736614874</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0004780861515574843</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-44.92927476379124</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.041008350176733e-10</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.01984350215024135</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.01796943258205612</v>
-      </c>
+        <v>0.08557761184603963</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.08723615222015407</v>
+        <v>0.2172664377872044</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01682353126585608</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0004872144513841002</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-38.8617696512119</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.652954587706632e-17</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.0177784572426719</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.01586860528904027</v>
-      </c>
+        <v>-0.1316888259411648</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.08931908832044672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01431538671097654</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0004827215720127204</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-33.50822306733857</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.002102571943198116</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.0152615067896283</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01336926663232477</v>
-      </c>
+        <v>0.08805126233516711</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.09182723287532626</v>
+        <v>0.2197400882763319</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01028950562756288</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0004925827891603462</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-24.10735516293427</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.0004523320985273739</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.01125495340155005</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.009324057853575724</v>
-      </c>
+        <v>0.091555499849164</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.09585311395873992</v>
+        <v>0.2232443257903288</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.00752414045664214</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0004938232060032846</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-17.68398120119439</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4.434311552621919e-05</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.00849201940377174</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.006556261509512542</v>
-      </c>
+        <v>0.09510082433394575</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.09861847912966067</v>
+        <v>0.2267896502751106</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006061756720183701</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.000490714344597208</v>
+        <v>0.09968549698692646</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="D22" t="n">
-        <v>-13.88460317761061</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.008344639618258407</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.007023542395709375</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.005099971044658026</v>
-      </c>
+        <v>24.48709787934645</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.1000808628661191</v>
+        <v>0.2313743229280912</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004529856174603477</v>
+        <v>0.1037980263581007</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004916465007868</v>
+        <v>0.007065848553025815</v>
       </c>
       <c r="D23" t="n">
-        <v>-10.64136945469301</v>
+        <v>734025052529.2623</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0463835227254233</v>
+        <v>0.03836030848340689</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.005493468842169032</v>
+        <v>0.08991336521888364</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.003566243507037921</v>
+        <v>0.1176826874973175</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1016127634116993</v>
+        <v>0.2354868522992655</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.003644616363592718</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0004853299699341739</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-8.273089909160886</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.01330534511819528</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.004595848803615329</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.002693383923570107</v>
-      </c>
+        <v>0.1089334915289676</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.1024980032227101</v>
+        <v>0.2406223174701324</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001712244381920993</v>
+        <v>0.1086776989391098</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004749873897066803</v>
+        <v>0.007804679243539208</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.973220928509489</v>
+        <v>1013593614591.051</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1647471085410445</v>
+        <v>0.04189783604402281</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.002643205645822024</v>
+        <v>0.09330245738633534</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0007812831180199616</v>
+        <v>0.1240529404918846</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1044303752043818</v>
+        <v>0.2403665248802746</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1096409753035083</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0.2413298012446731</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1102895433466772</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>117920099108.8531</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0.241978369287842</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1070540981889636</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.006867792374828793</v>
+      </c>
+      <c r="D28" t="n">
+        <v>24.83296017347495</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.08080358689246094</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.09345604768560802</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.120652148692319</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2387429241301284</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.006150570391680345</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.001980136386180589</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5.516193734070618</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1861329089211397</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.01400888997209884</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.008581005721397809</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1122931899779832</v>
+      <c r="B29" t="n">
+        <v>0.005170527546593091</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0002568600327536005</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.839256973089009</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.001572132094874578</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.004666805257254389</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.005674249835931799</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1368593534877579</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year14final.xlsx
+++ b/hourly datasets/cap_gen_year14final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1316888259411648</v>
+        <v>0.1034266086838253</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09674412441938615</v>
+        <v>0.1006472130890178</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2284329503605509</v>
+        <v>0.2040738217728431</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07990344475434134</v>
+        <v>0.09232867143567874</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2115922706955061</v>
+        <v>0.1957552801195041</v>
       </c>
     </row>
     <row r="5">
@@ -536,25 +536,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04772262895102367</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.002506292534061922</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.46460164921901</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.02889702035119944</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.04279117835329112</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.05265407954875514</v>
-      </c>
+        <v>0.05631367723607251</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1794114548921885</v>
+        <v>0.1597402859198978</v>
       </c>
     </row>
     <row r="6">
@@ -564,25 +554,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03787531977556786</v>
+        <v>0.05061628046209641</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001850516781584427</v>
+        <v>0.002775124116460936</v>
       </c>
       <c r="D6" t="n">
-        <v>6.068518310765977</v>
+        <v>7.229908160878246</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01093917159745214</v>
+        <v>0.01722574224865763</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03423433366044756</v>
+        <v>0.04516223503779269</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04151630589068808</v>
+        <v>0.05607032588640019</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1695641457167326</v>
+        <v>0.1540428891459217</v>
       </c>
     </row>
     <row r="7">
@@ -592,25 +582,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02958300721800722</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.001849660232010571</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.978304252956748</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.002333630388980827</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.02595091955157206</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.03321509488444215</v>
-      </c>
+        <v>0.04756014946787813</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.161271833159172</v>
+        <v>0.1509867581517035</v>
       </c>
     </row>
     <row r="8">
@@ -620,25 +600,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00669560249701444</v>
+        <v>0.03583754662207645</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003751699148337559</v>
+        <v>0.002786738962805749</v>
       </c>
       <c r="D8" t="n">
-        <v>1.990889775517862</v>
+        <v>4.940510280842267</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001177792712182868</v>
+        <v>0.006472974945438711</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005958582913412894</v>
+        <v>0.03035778965654701</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007432622080616153</v>
+        <v>0.0413173035876058</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1383844284381792</v>
+        <v>0.1392641553059018</v>
       </c>
     </row>
     <row r="9">
@@ -648,25 +628,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005769329234511305</v>
+        <v>0.03686871014905553</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003410958127635297</v>
+        <v>0.001845062320910928</v>
       </c>
       <c r="D9" t="n">
-        <v>1.976889684946653</v>
+        <v>5.227821554341242</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001914234157556083</v>
+        <v>0.006808002356149154</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005099039437638202</v>
+        <v>0.03324792020700708</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00643961903138441</v>
+        <v>0.04048950009110399</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1374581551756761</v>
+        <v>0.1402953188328809</v>
       </c>
     </row>
     <row r="10">
@@ -676,25 +656,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00431597260569016</v>
+        <v>0.03901001682294634</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003288612888484702</v>
+        <v>0.00255422690986017</v>
       </c>
       <c r="D10" t="n">
-        <v>1.405232429771418</v>
+        <v>5.773535046456106</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001353014026351332</v>
+        <v>0.007460108337300352</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003670909922886921</v>
+        <v>0.033988306969606</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004961035288493358</v>
+        <v>0.04403172667628798</v>
       </c>
       <c r="H10" t="n">
-        <v>0.136004798546855</v>
+        <v>0.1424366255067717</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +684,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03110187439324346</v>
+        <v>0.03088017471332317</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -712,7 +692,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1627907003344083</v>
+        <v>0.1343067833971485</v>
       </c>
     </row>
     <row r="12">
@@ -722,7 +702,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05059417918919562</v>
+        <v>0.05147464369771785</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -730,7 +710,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1822830051303604</v>
+        <v>0.1549012523815432</v>
       </c>
     </row>
     <row r="13">
@@ -740,7 +720,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0665875333051047</v>
+        <v>0.0677617951436638</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -748,7 +728,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.1982763592462695</v>
+        <v>0.1711884038274891</v>
       </c>
     </row>
     <row r="14">
@@ -758,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07167904298709712</v>
+        <v>0.07175102020736146</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -766,7 +746,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2033678689282619</v>
+        <v>0.1751776288911868</v>
       </c>
     </row>
     <row r="15">
@@ -776,7 +756,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07823584932966138</v>
+        <v>0.07907745582211108</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -784,7 +764,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2099246752708262</v>
+        <v>0.1825040645059364</v>
       </c>
     </row>
     <row r="16">
@@ -794,7 +774,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0826424627381253</v>
+        <v>0.0837079406595235</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -802,7 +782,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2143312886792901</v>
+        <v>0.1871345493433488</v>
       </c>
     </row>
     <row r="17">
@@ -812,7 +792,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08557761184603963</v>
+        <v>0.08589609529377445</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -820,7 +800,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.2172664377872044</v>
+        <v>0.1893227039775998</v>
       </c>
     </row>
     <row r="18">
@@ -830,7 +810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1316888259411648</v>
+        <v>-0.1034266086838253</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -848,7 +828,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08805126233516711</v>
+        <v>0.08815766389767526</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -856,7 +836,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2197400882763319</v>
+        <v>0.1915842725815006</v>
       </c>
     </row>
     <row r="20">
@@ -866,7 +846,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.091555499849164</v>
+        <v>0.09190117280910687</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -874,7 +854,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.2232443257903288</v>
+        <v>0.1953277814929322</v>
       </c>
     </row>
     <row r="21">
@@ -884,7 +864,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09510082433394575</v>
+        <v>0.09583652875897439</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -892,7 +872,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.2267896502751106</v>
+        <v>0.1992631374427997</v>
       </c>
     </row>
     <row r="22">
@@ -902,21 +882,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.09968549698692646</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1000847894830573</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.007506695754597443</v>
       </c>
       <c r="D22" t="n">
-        <v>24.48709787934645</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+        <v>24.23474978223476</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.04219457408128865</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.08530715130748218</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1148624276586325</v>
+      </c>
       <c r="H22" t="n">
-        <v>0.2313743229280912</v>
+        <v>0.2035113981668826</v>
       </c>
     </row>
     <row r="23">
@@ -926,25 +910,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1037980263581007</v>
+        <v>0.1036830179220661</v>
       </c>
       <c r="C23" t="n">
-        <v>0.007065848553025815</v>
+        <v>0.007398999447646707</v>
       </c>
       <c r="D23" t="n">
-        <v>734025052529.2623</v>
+        <v>25.16679227113135</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03836030848340689</v>
+        <v>0.03962144289720126</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08991336521888364</v>
+        <v>0.08913937494315255</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1176826874973175</v>
+        <v>0.1182266609009801</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2354868522992655</v>
+        <v>0.2071096266058914</v>
       </c>
     </row>
     <row r="24">
@@ -954,15 +938,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1089334915289676</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+        <v>0.1091933794225123</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.007456009891838536</v>
+      </c>
+      <c r="D24" t="n">
+        <v>26.78362469229936</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.04507251405913407</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.09452914025756412</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1238576185874605</v>
+      </c>
       <c r="H24" t="n">
-        <v>0.2406223174701324</v>
+        <v>0.2126199881063376</v>
       </c>
     </row>
     <row r="25">
@@ -972,25 +966,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1086776989391098</v>
+        <v>0.110467683033059</v>
       </c>
       <c r="C25" t="n">
-        <v>0.007804679243539208</v>
+        <v>0.008766470598799106</v>
       </c>
       <c r="D25" t="n">
-        <v>1013593614591.051</v>
+        <v>25.59246074959471</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04189783604402281</v>
+        <v>0.04161387311213175</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09330245738633534</v>
+        <v>0.09320792228469538</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1240529404918846</v>
+        <v>0.1277274437814231</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2403665248802746</v>
+        <v>0.2138942917168843</v>
       </c>
     </row>
     <row r="26">
@@ -1000,15 +994,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1096409753035083</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>0.111458949772634</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.008365031793420543</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25.75841447348996</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.03879307820635577</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.09501340980857417</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1279044897366938</v>
+      </c>
       <c r="H26" t="n">
-        <v>0.2413298012446731</v>
+        <v>0.2148855584564593</v>
       </c>
     </row>
     <row r="27">
@@ -1018,21 +1022,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1102895433466772</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1118534318178833</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.007433828465952445</v>
       </c>
       <c r="D27" t="n">
-        <v>117920099108.8531</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>25.10410679833312</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.05196740885247918</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.09724637480122314</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1264604888345434</v>
+      </c>
       <c r="H27" t="n">
-        <v>0.241978369287842</v>
+        <v>0.2152800405017086</v>
       </c>
     </row>
     <row r="28">
@@ -1042,25 +1050,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1070540981889636</v>
+        <v>0.108244377125806</v>
       </c>
       <c r="C28" t="n">
-        <v>0.006867792374828793</v>
+        <v>0.007414605910322103</v>
       </c>
       <c r="D28" t="n">
-        <v>24.83296017347495</v>
+        <v>24.00407113535745</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08080358689246094</v>
+        <v>0.08279491930408636</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09345604768560802</v>
+        <v>0.09367797055066414</v>
       </c>
       <c r="G28" t="n">
-        <v>0.120652148692319</v>
+        <v>0.1228107837009481</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2387429241301284</v>
+        <v>0.2116709858096313</v>
       </c>
     </row>
     <row r="29">
@@ -1070,25 +1078,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.005170527546593091</v>
+        <v>0.04238876528774297</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0002568600327536005</v>
+        <v>0.002351870200783593</v>
       </c>
       <c r="D29" t="n">
-        <v>1.839256973089009</v>
+        <v>6.994076770040634</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001572132094874578</v>
+        <v>0.006103438735143013</v>
       </c>
       <c r="F29" t="n">
-        <v>0.004666805257254389</v>
+        <v>0.03776587826790539</v>
       </c>
       <c r="G29" t="n">
-        <v>0.005674249835931799</v>
+        <v>0.04701165230758043</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1368593534877579</v>
+        <v>0.1458153739715683</v>
       </c>
     </row>
   </sheetData>
